--- a/results/mp/deberta/corona/confidence/210/stop-words-topk-masking-0.35/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-topk-masking-0.35/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="1112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="1112">
   <si>
     <t>anchor score</t>
   </si>
@@ -334,655 +334,655 @@
     <t>gel</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>lied</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>losing</t>
+  </si>
+  <si>
+    <t>killing</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>dirty</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>causes</t>
+  </si>
+  <si>
+    <t>lose</t>
+  </si>
+  <si>
+    <t>complaint</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>struggle</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>bloody</t>
+  </si>
+  <si>
+    <t>congress</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>caused</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>stuck</t>
+  </si>
+  <si>
+    <t>scared</t>
+  </si>
+  <si>
+    <t>ban</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>delayed</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>avoiding</t>
+  </si>
+  <si>
+    <t>federal</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>combat</t>
+  </si>
+  <si>
+    <t>cancel</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>flat</t>
+  </si>
+  <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>causing</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>slash</t>
+  </si>
+  <si>
+    <t>stops</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>analysis</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>non</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>saying</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>consider</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
+    <t>rolls</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>australia</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>found</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>banks</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>taking</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>goods</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>trying</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>never</t>
+  </si>
+  <si>
+    <t>consumers</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>ho</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>amid</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>lied</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>losing</t>
-  </si>
-  <si>
-    <t>killing</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>dirty</t>
-  </si>
-  <si>
-    <t>vulnerable</t>
-  </si>
-  <si>
-    <t>causes</t>
-  </si>
-  <si>
-    <t>lose</t>
-  </si>
-  <si>
-    <t>complaint</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>struggle</t>
-  </si>
-  <si>
-    <t>disabled</t>
-  </si>
-  <si>
-    <t>bloody</t>
-  </si>
-  <si>
-    <t>congress</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>caused</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>stuck</t>
-  </si>
-  <si>
-    <t>scared</t>
-  </si>
-  <si>
-    <t>ban</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>delayed</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>avoiding</t>
-  </si>
-  <si>
-    <t>federal</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>critical</t>
+    <t>special</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>combat</t>
-  </si>
-  <si>
-    <t>cancel</t>
-  </si>
-  <si>
-    <t>battle</t>
-  </si>
-  <si>
-    <t>flat</t>
-  </si>
-  <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>causing</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>slash</t>
-  </si>
-  <si>
-    <t>stops</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>analysis</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>non</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>saying</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>consider</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
-    <t>rolls</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>act</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>australia</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>found</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>financial</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>milk</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>lo</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>life</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>banks</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>taking</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>goods</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>trying</t>
-  </si>
-  <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>never</t>
-  </si>
-  <si>
-    <t>consumers</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>ho</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>amid</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>special</t>
   </si>
   <si>
     <t>better</t>
@@ -3715,10 +3715,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3847,7 +3847,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K4">
         <v>0.864406779661017</v>
@@ -3897,7 +3897,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K5">
         <v>0.8636363636363636</v>
@@ -3997,7 +3997,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K7">
         <v>0.8267716535433071</v>
@@ -4047,7 +4047,7 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K8">
         <v>0.7579617834394905</v>
@@ -4097,7 +4097,7 @@
         <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K9">
         <v>0.7214285714285714</v>
@@ -4147,28 +4147,28 @@
         <v>3</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="K10">
-        <v>0.7173913043478261</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L10">
-        <v>165</v>
+        <v>32</v>
       </c>
       <c r="M10">
-        <v>174</v>
+        <v>33</v>
       </c>
       <c r="N10">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O10">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P10" t="b">
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>65</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4197,28 +4197,28 @@
         <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>147</v>
+        <v>84</v>
       </c>
       <c r="K11">
-        <v>0.7111111111111111</v>
+        <v>0.7070707070707071</v>
       </c>
       <c r="L11">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="M11">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="N11">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="O11">
-        <v>0.03000000000000003</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P11" t="b">
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4247,28 +4247,28 @@
         <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>84</v>
+        <v>320</v>
       </c>
       <c r="K12">
-        <v>0.7070707070707071</v>
+        <v>0.6903765690376569</v>
       </c>
       <c r="L12">
-        <v>70</v>
+        <v>165</v>
       </c>
       <c r="M12">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="N12">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>29</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4297,7 +4297,7 @@
         <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K13">
         <v>0.6777777777777778</v>
@@ -4347,28 +4347,28 @@
         <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>143</v>
+        <v>321</v>
       </c>
       <c r="K14">
-        <v>0.5957446808510638</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L14">
-        <v>196</v>
+        <v>21</v>
       </c>
       <c r="M14">
-        <v>207</v>
+        <v>21</v>
       </c>
       <c r="N14">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>133</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -4400,13 +4400,13 @@
         <v>322</v>
       </c>
       <c r="K15">
-        <v>0.5833333333333334</v>
+        <v>0.5764705882352941</v>
       </c>
       <c r="L15">
-        <v>21</v>
+        <v>196</v>
       </c>
       <c r="M15">
-        <v>21</v>
+        <v>196</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -4418,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>15</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -4447,7 +4447,7 @@
         <v>92</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K16">
         <v>0.5747126436781609</v>
@@ -4547,7 +4547,7 @@
         <v>4</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K18">
         <v>0.5578947368421052</v>
@@ -4647,7 +4647,7 @@
         <v>3</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K20">
         <v>0.5294117647058824</v>
@@ -4697,7 +4697,7 @@
         <v>3</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K21">
         <v>0.4912280701754386</v>
@@ -4797,7 +4797,7 @@
         <v>8</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K23">
         <v>0.4375</v>
@@ -4897,7 +4897,7 @@
         <v>4</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K25">
         <v>0.417910447761194</v>
@@ -4997,7 +4997,7 @@
         <v>3</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K27">
         <v>0.4042553191489361</v>
@@ -5097,7 +5097,7 @@
         <v>3</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K29">
         <v>0.3987341772151899</v>
@@ -5197,7 +5197,7 @@
         <v>5</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K31">
         <v>0.390625</v>
@@ -5347,7 +5347,7 @@
         <v>8</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K34">
         <v>0.3584905660377358</v>
@@ -5397,7 +5397,7 @@
         <v>11</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K35">
         <v>0.3545232273838631</v>
@@ -5597,7 +5597,7 @@
         <v>8</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K39">
         <v>0.3333333333333333</v>
@@ -5897,7 +5897,7 @@
         <v>13</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K45">
         <v>0.3269230769230769</v>
@@ -5947,7 +5947,7 @@
         <v>6</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K46">
         <v>0.3263157894736842</v>
@@ -6047,7 +6047,7 @@
         <v>16</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K48">
         <v>0.3214285714285715</v>
@@ -6747,7 +6747,7 @@
         <v>12</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K62">
         <v>0.2833333333333333</v>
@@ -6797,7 +6797,7 @@
         <v>6</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K63">
         <v>0.28125</v>
@@ -7047,7 +7047,7 @@
         <v>7</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K68">
         <v>0.267175572519084</v>
@@ -7147,7 +7147,7 @@
         <v>21</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K70">
         <v>0.2666666666666667</v>
@@ -7247,7 +7247,7 @@
         <v>25</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K72">
         <v>0.265979381443299</v>
@@ -7397,7 +7397,7 @@
         <v>22</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K75">
         <v>0.2592592592592592</v>
@@ -7497,7 +7497,7 @@
         <v>24</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K77">
         <v>0.2580645161290323</v>
@@ -7547,7 +7547,7 @@
         <v>4</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K78">
         <v>0.2571428571428571</v>
@@ -8147,7 +8147,7 @@
         <v>18</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K90">
         <v>0.2494356659142212</v>
@@ -8197,7 +8197,7 @@
         <v>6</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K91">
         <v>0.2448979591836735</v>
@@ -8297,7 +8297,7 @@
         <v>6</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K93">
         <v>0.241042345276873</v>
@@ -8347,7 +8347,7 @@
         <v>6</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K94">
         <v>0.24</v>
@@ -8397,7 +8397,7 @@
         <v>129</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K95">
         <v>0.2390243902439024</v>
@@ -8447,7 +8447,7 @@
         <v>13</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K96">
         <v>0.2388059701492537</v>
@@ -8676,28 +8676,28 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.1216216216216216</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="C101">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D101">
-        <v>174</v>
+        <v>65</v>
       </c>
       <c r="E101">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F101">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G101" t="b">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K101">
         <v>0.2365591397849462</v>
@@ -8726,28 +8726,28 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1212121212121212</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C102">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D102">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="E102">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K102">
         <v>0.2361111111111111</v>
@@ -8782,22 +8782,22 @@
         <v>2</v>
       </c>
       <c r="D103">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103">
         <v>15</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K103">
         <v>0.2309417040358744</v>
@@ -8829,22 +8829,22 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="C104">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D104">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="E104">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>378</v>
@@ -8876,13 +8876,13 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.1176470588235294</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C105">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D105">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -8894,7 +8894,7 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>379</v>
@@ -8932,16 +8932,16 @@
         <v>1</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106">
         <v>8</v>
@@ -8982,16 +8982,16 @@
         <v>1</v>
       </c>
       <c r="D107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E107">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H107">
         <v>8</v>
@@ -9076,13 +9076,13 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.1111111111111111</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -9094,7 +9094,7 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>383</v>
@@ -9126,13 +9126,13 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.1052631578947368</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="C110">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D110">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -9144,7 +9144,7 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="J110" s="1" t="s">
         <v>384</v>
@@ -9176,13 +9176,13 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.1025641025641026</v>
+        <v>0.1</v>
       </c>
       <c r="C111">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D111">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -9194,7 +9194,7 @@
         <v>0</v>
       </c>
       <c r="H111">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="J111" s="1" t="s">
         <v>385</v>
@@ -9229,10 +9229,10 @@
         <v>0.1</v>
       </c>
       <c r="C112">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -9244,7 +9244,7 @@
         <v>0</v>
       </c>
       <c r="H112">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="J112" s="1" t="s">
         <v>386</v>
@@ -9279,10 +9279,10 @@
         <v>0.1</v>
       </c>
       <c r="C113">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D113">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -9294,10 +9294,10 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K113">
         <v>0.2272727272727273</v>
@@ -9426,25 +9426,25 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.1</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H116">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>389</v>
@@ -9476,25 +9476,25 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.09523809523809523</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D117">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E117">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>390</v>
@@ -9726,13 +9726,13 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.09090909090909091</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="C122">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -9744,7 +9744,7 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>395</v>
@@ -9776,13 +9776,13 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.08749999999999999</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="C123">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D123">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -9794,7 +9794,7 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>396</v>
@@ -9826,13 +9826,13 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.08695652173913043</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C124">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D124">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -9844,7 +9844,7 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="J124" s="1" t="s">
         <v>397</v>
@@ -9879,10 +9879,10 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="C125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -9894,10 +9894,10 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K125">
         <v>0.2207792207792208</v>
@@ -10032,22 +10032,22 @@
         <v>1</v>
       </c>
       <c r="D128">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128">
         <v>11</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K128">
         <v>0.2149532710280374</v>
@@ -10082,13 +10082,13 @@
         <v>1</v>
       </c>
       <c r="D129">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E129">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="F129">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G129" t="b">
         <v>1</v>
@@ -10132,22 +10132,22 @@
         <v>1</v>
       </c>
       <c r="D130">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E130">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H130">
         <v>11</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K130">
         <v>0.2142857142857143</v>
@@ -10176,25 +10176,25 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.08333333333333333</v>
+        <v>0.08</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="F131">
-        <v>1</v>
+        <v>0.18</v>
       </c>
       <c r="G131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>401</v>
@@ -10226,28 +10226,28 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.08</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D132">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E132">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>0.18</v>
+        <v>1</v>
       </c>
       <c r="G132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H132">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K132">
         <v>0.2105947351316217</v>
@@ -10329,22 +10329,22 @@
         <v>0.07692307692307693</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>403</v>
@@ -10382,16 +10382,16 @@
         <v>2</v>
       </c>
       <c r="D135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E135">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>0.6699999999999999</v>
+        <v>1</v>
       </c>
       <c r="G135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135">
         <v>24</v>
@@ -10447,7 +10447,7 @@
         <v>24</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K136">
         <v>0.2081959491285916</v>
@@ -10476,25 +10476,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.07692307692307693</v>
+        <v>0.07317073170731707</v>
       </c>
       <c r="C137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D137">
-        <v>2</v>
+        <v>122</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F137">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>405</v>
@@ -10526,25 +10526,25 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.0763888888888889</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C138">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D138">
-        <v>207</v>
+        <v>31</v>
       </c>
       <c r="E138">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="F138">
-        <v>0.05000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G138" t="b">
         <v>1</v>
       </c>
       <c r="H138">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>406</v>
@@ -10576,28 +10576,28 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.07317073170731707</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D139">
-        <v>122</v>
+        <v>2</v>
       </c>
       <c r="E139">
-        <v>0.98</v>
+        <v>0.5</v>
       </c>
       <c r="F139">
-        <v>0.02000000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="G139" t="b">
         <v>1</v>
       </c>
       <c r="H139">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K139">
         <v>0.2060390763765542</v>
@@ -10629,25 +10629,25 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="C140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D140">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E140">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="F140">
-        <v>0.09999999999999998</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G140" t="b">
         <v>1</v>
       </c>
       <c r="H140">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K140">
         <v>0.2051282051282051</v>
@@ -10676,25 +10676,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E141">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F141">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G141" t="b">
         <v>1</v>
       </c>
       <c r="H141">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>407</v>
@@ -10726,25 +10726,25 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
       <c r="D142">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="E142">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="F142">
-        <v>0.03000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
       </c>
       <c r="H142">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J142" s="1" t="s">
         <v>408</v>
@@ -10782,16 +10782,16 @@
         <v>1</v>
       </c>
       <c r="D143">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E143">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F143">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H143">
         <v>14</v>
@@ -10847,7 +10847,7 @@
         <v>14</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K144">
         <v>0.2012383900928792</v>
@@ -10876,7 +10876,7 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -10894,10 +10894,10 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K145">
         <v>0.2</v>
@@ -10926,28 +10926,28 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="D146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E146">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F146">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H146">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K146">
         <v>0.2</v>
@@ -11176,25 +11176,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>414</v>
@@ -11226,7 +11226,7 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -11244,7 +11244,7 @@
         <v>0</v>
       </c>
       <c r="H152">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>415</v>
@@ -11282,16 +11282,16 @@
         <v>1</v>
       </c>
       <c r="D153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E153">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H153">
         <v>16</v>
@@ -11326,7 +11326,7 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -11344,7 +11344,7 @@
         <v>0</v>
       </c>
       <c r="H154">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>417</v>
@@ -11376,25 +11376,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F155">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H155">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>418</v>
@@ -11426,25 +11426,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.05555555555555555</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D156">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="G156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H156">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>419</v>
@@ -11476,25 +11476,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C157">
         <v>1</v>
       </c>
       <c r="D157">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E157">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H157">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>420</v>
@@ -11526,25 +11526,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.05333333333333334</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C158">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D158">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E158">
-        <v>0.85</v>
+        <v>0.5</v>
       </c>
       <c r="F158">
-        <v>0.15</v>
+        <v>0.5</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>421</v>
@@ -11582,16 +11582,16 @@
         <v>1</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F159">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H159">
         <v>18</v>
@@ -11682,16 +11682,16 @@
         <v>1</v>
       </c>
       <c r="D161">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E161">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H161">
         <v>18</v>
@@ -11726,28 +11726,28 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.05263157894736842</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D162">
         <v>2</v>
       </c>
       <c r="E162">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H162">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K162">
         <v>0.1986301369863014</v>
@@ -11776,28 +11776,28 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.05263157894736842</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K163">
         <v>0.1984732824427481</v>
@@ -11826,28 +11826,28 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.05128205128205128</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="C164">
         <v>2</v>
       </c>
       <c r="D164">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F164">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K164">
         <v>0.1981981981981982</v>
@@ -11876,25 +11876,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.05128205128205128</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D165">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="E165">
-        <v>0.96</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>0.04000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>424</v>
@@ -11926,25 +11926,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.04878048780487805</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D166">
-        <v>103</v>
+        <v>8</v>
       </c>
       <c r="E166">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="F166">
-        <v>0.02000000000000002</v>
+        <v>0.12</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>425</v>
@@ -11976,25 +11976,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>426</v>
@@ -12026,25 +12026,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E168">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="F168">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>427</v>
@@ -12082,16 +12082,16 @@
         <v>1</v>
       </c>
       <c r="D169">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E169">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H169">
         <v>21</v>
@@ -12126,7 +12126,7 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -12144,7 +12144,7 @@
         <v>1</v>
       </c>
       <c r="H170">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>429</v>
@@ -12176,28 +12176,28 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H171">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K171">
         <v>0.1904761904761905</v>
@@ -12282,13 +12282,13 @@
         <v>1</v>
       </c>
       <c r="D173">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E173">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F173">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
@@ -12297,7 +12297,7 @@
         <v>22</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K173">
         <v>0.1889763779527559</v>
@@ -12332,13 +12332,13 @@
         <v>1</v>
       </c>
       <c r="D174">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="E174">
-        <v>0.5</v>
+        <v>0.99</v>
       </c>
       <c r="F174">
-        <v>0.5</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
@@ -12347,7 +12347,7 @@
         <v>22</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K174">
         <v>0.188034188034188</v>
@@ -12379,22 +12379,22 @@
         <v>0.04347826086956522</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D175">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E175">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="F175">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>431</v>
@@ -12432,16 +12432,16 @@
         <v>1</v>
       </c>
       <c r="D176">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="E176">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H176">
         <v>22</v>
@@ -12476,25 +12476,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.04347826086956522</v>
+        <v>0.04225352112676056</v>
       </c>
       <c r="C177">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D177">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="E177">
-        <v>0.85</v>
+        <v>0.96</v>
       </c>
       <c r="F177">
-        <v>0.15</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>433</v>
@@ -12526,7 +12526,7 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.04347826086956522</v>
+        <v>0.04</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -12544,10 +12544,10 @@
         <v>0</v>
       </c>
       <c r="H178">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K178">
         <v>0.1851851851851852</v>
@@ -12576,25 +12576,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.04225352112676056</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C179">
+        <v>2</v>
+      </c>
+      <c r="D179">
         <v>6</v>
       </c>
-      <c r="D179">
-        <v>159</v>
-      </c>
       <c r="E179">
-        <v>0.96</v>
+        <v>0.67</v>
       </c>
       <c r="F179">
-        <v>0.04000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>434</v>
@@ -12626,28 +12626,28 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.04</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F180">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H180">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K180">
         <v>0.1819595645412131</v>
@@ -12676,25 +12676,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C181">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D181">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E181">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F181">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H181">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>435</v>
@@ -12726,25 +12726,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.03703703703703703</v>
+        <v>0.03585657370517929</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D182">
         <v>10</v>
       </c>
       <c r="E182">
+        <v>0.1</v>
+      </c>
+      <c r="F182">
         <v>0.9</v>
       </c>
-      <c r="F182">
-        <v>0.09999999999999998</v>
-      </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>436</v>
@@ -12776,7 +12776,7 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -12794,7 +12794,7 @@
         <v>0</v>
       </c>
       <c r="H183">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>437</v>
@@ -12826,25 +12826,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.03585657370517929</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C184">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D184">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E184">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="F184">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>242</v>
+        <v>27</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>438</v>
@@ -12976,28 +12976,28 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F187">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H187">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K187">
         <v>0.1801801801801802</v>
@@ -13026,25 +13026,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E188">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="F188">
-        <v>0.5</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>441</v>
@@ -13082,16 +13082,16 @@
         <v>1</v>
       </c>
       <c r="D189">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E189">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H189">
         <v>28</v>
@@ -13126,25 +13126,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.03448275862068965</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="C190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D190">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E190">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F190">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H190">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>443</v>
@@ -13176,13 +13176,13 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.03448275862068965</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D191">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -13194,10 +13194,10 @@
         <v>0</v>
       </c>
       <c r="H191">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K191">
         <v>0.1779661016949153</v>
@@ -13226,25 +13226,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.03389830508474576</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C192">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D192">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F192">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>444</v>
@@ -13276,25 +13276,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.03333333333333333</v>
+        <v>0.03296703296703297</v>
       </c>
       <c r="C193">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D193">
-        <v>3</v>
+        <v>154</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F193">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H193">
-        <v>87</v>
+        <v>264</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>445</v>
@@ -13326,25 +13326,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.03333333333333333</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="E194">
-        <v>0.97</v>
+        <v>0.67</v>
       </c>
       <c r="F194">
-        <v>0.03000000000000003</v>
+        <v>0.33</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>446</v>
@@ -13376,25 +13376,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.03296703296703297</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C195">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D195">
-        <v>154</v>
+        <v>4</v>
       </c>
       <c r="E195">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F195">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>264</v>
+        <v>30</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>447</v>
@@ -13426,28 +13426,28 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.03225806451612903</v>
+        <v>0.03191489361702127</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D196">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E196">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="F196">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K196">
         <v>0.1764705882352941</v>
@@ -13476,28 +13476,28 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.03225806451612903</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C197">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D197">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="E197">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="F197">
-        <v>0.25</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K197">
         <v>0.1748633879781421</v>
@@ -13526,25 +13526,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.03191489361702127</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="C198">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D198">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E198">
-        <v>0.7</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F198">
-        <v>0.3</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>448</v>
@@ -13579,22 +13579,22 @@
         <v>0.0303030303030303</v>
       </c>
       <c r="C199">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D199">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="E199">
-        <v>0.92</v>
+        <v>0.67</v>
       </c>
       <c r="F199">
-        <v>0.07999999999999996</v>
+        <v>0.33</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>449</v>
@@ -13626,25 +13626,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0303030303030303</v>
+        <v>0.03012048192771084</v>
       </c>
       <c r="C200">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D200">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E200">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H200">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>450</v>
@@ -13676,28 +13676,28 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0303030303030303</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D201">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E201">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H201">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K201">
         <v>0.171875</v>
@@ -13726,28 +13726,28 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.03012048192771084</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C202">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D202">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="F202">
-        <v>1</v>
+        <v>0.17</v>
       </c>
       <c r="G202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H202">
-        <v>161</v>
+        <v>33</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K202">
         <v>0.1693548387096774</v>
@@ -13776,25 +13776,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.02941176470588235</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C203">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D203">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H203">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>451</v>
@@ -13826,25 +13826,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.02941176470588235</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E204">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="F204">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>452</v>
@@ -13876,25 +13876,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.02857142857142857</v>
+        <v>0.02830188679245283</v>
       </c>
       <c r="C205">
         <v>3</v>
       </c>
       <c r="D205">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E205">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="F205">
-        <v>0.08999999999999997</v>
+        <v>0.12</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>453</v>
@@ -13926,28 +13926,28 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D206">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="E206">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F206">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K206">
         <v>0.1666666666666667</v>
@@ -13976,25 +13976,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.02830188679245283</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C207">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D207">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="E207">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="F207">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>454</v>
@@ -14026,25 +14026,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C208">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D208">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="E208">
-        <v>0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F208">
-        <v>0.06000000000000005</v>
+        <v>0.5</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>455</v>
@@ -14076,25 +14076,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E209">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F209">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H209">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>456</v>
@@ -14132,13 +14132,13 @@
         <v>1</v>
       </c>
       <c r="D210">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E210">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F210">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
@@ -14176,25 +14176,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F211">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H211">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>458</v>
@@ -14226,25 +14226,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.02702702702702703</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E212">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F212">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>459</v>
@@ -14276,25 +14276,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.02631578947368421</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E213">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="F213">
-        <v>0.33</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>460</v>
@@ -14332,13 +14332,13 @@
         <v>1</v>
       </c>
       <c r="D214">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E214">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="F214">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
@@ -14376,25 +14376,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E215">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F215">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H215">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>462</v>
@@ -14426,25 +14426,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E216">
-        <v>0.75</v>
+        <v>0.96</v>
       </c>
       <c r="F216">
-        <v>0.25</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>463</v>
@@ -14476,25 +14476,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F217">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H217">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>464</v>
@@ -14526,25 +14526,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.025</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E218">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="F218">
-        <v>0.04000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>465</v>
@@ -14582,13 +14582,13 @@
         <v>1</v>
       </c>
       <c r="D219">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E219">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F219">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
@@ -14626,25 +14626,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E220">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F220">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>467</v>
@@ -14676,25 +14676,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.02439024390243903</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E221">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F221">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>468</v>
@@ -14726,25 +14726,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.02380952380952381</v>
+        <v>0.02298850574712644</v>
       </c>
       <c r="C222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D222">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E222">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F222">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>469</v>
@@ -14776,25 +14776,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.02380952380952381</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E223">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F223">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>470</v>
@@ -14826,25 +14826,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.02298850574712644</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D224">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E224">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="F224">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>471</v>
@@ -14876,25 +14876,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.02272727272727273</v>
+        <v>0.02264150943396226</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D225">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="E225">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F225">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>43</v>
+        <v>259</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>472</v>
@@ -14926,25 +14926,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.02272727272727273</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E226">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="F226">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>473</v>
@@ -14976,25 +14976,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.02264150943396226</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C227">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D227">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="E227">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="F227">
-        <v>0.06999999999999995</v>
+        <v>0.12</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>259</v>
+        <v>45</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>474</v>
@@ -15026,25 +15026,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.02222222222222222</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E228">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F228">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>475</v>
@@ -15076,25 +15076,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.02173913043478261</v>
+        <v>0.02158273381294964</v>
       </c>
       <c r="C229">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D229">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="E229">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="F229">
-        <v>0.12</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>476</v>
@@ -15126,25 +15126,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.02173913043478261</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="C230">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D230">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E230">
-        <v>0.67</v>
+        <v>0.43</v>
       </c>
       <c r="F230">
-        <v>0.33</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>477</v>
@@ -15176,25 +15176,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.02158273381294964</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="C231">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D231">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="E231">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="F231">
-        <v>0.04000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>478</v>
@@ -15226,25 +15226,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.02150537634408602</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C232">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D232">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E232">
-        <v>0.43</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F232">
-        <v>0.5700000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>182</v>
+        <v>46</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>479</v>
@@ -15276,25 +15276,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.02150537634408602</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C233">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D233">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E233">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="F233">
-        <v>0.11</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>480</v>
@@ -15326,25 +15326,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.02127659574468085</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E234">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F234">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>481</v>
@@ -15376,25 +15376,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.02040816326530612</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="C235">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D235">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E235">
-        <v>0.9</v>
+        <v>0.78</v>
       </c>
       <c r="F235">
-        <v>0.09999999999999998</v>
+        <v>0.22</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>482</v>
@@ -15426,25 +15426,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.02040816326530612</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E236">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F236">
-        <v>0.09999999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>483</v>
@@ -15476,25 +15476,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.0198019801980198</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D237">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E237">
-        <v>0.78</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F237">
-        <v>0.22</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>484</v>
@@ -15526,25 +15526,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.01923076923076923</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="C238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D238">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E238">
-        <v>0.8</v>
+        <v>0.92</v>
       </c>
       <c r="F238">
-        <v>0.2</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>485</v>
@@ -15576,13 +15576,13 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.01923076923076923</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="C239">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D239">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="E239">
         <v>0.9399999999999999</v>
@@ -15594,7 +15594,7 @@
         <v>1</v>
       </c>
       <c r="H239">
-        <v>51</v>
+        <v>312</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>486</v>
@@ -15626,25 +15626,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.01904761904761905</v>
+        <v>0.01869158878504673</v>
       </c>
       <c r="C240">
         <v>2</v>
       </c>
       <c r="D240">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E240">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="F240">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>487</v>
@@ -15676,25 +15676,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.01886792452830189</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C241">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D241">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="E241">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F241">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>312</v>
+        <v>53</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>488</v>
@@ -15726,25 +15726,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.01869158878504673</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C242">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D242">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E242">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="F242">
-        <v>0.06999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>489</v>
@@ -15782,13 +15782,13 @@
         <v>1</v>
       </c>
       <c r="D243">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E243">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="F243">
-        <v>0.09999999999999998</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
@@ -15826,28 +15826,28 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.01851851851851852</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E244">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F244">
-        <v>0.09999999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J244" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K244">
         <v>0.16</v>
@@ -15876,28 +15876,28 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.01851851851851852</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E245">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F245">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H245">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J245" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K245">
         <v>0.1578947368421053</v>
@@ -15926,25 +15926,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.01818181818181818</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E246">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F246">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H246">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>491</v>
@@ -15976,28 +15976,28 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.01818181818181818</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F247">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H247">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J247" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K247">
         <v>0.1578947368421053</v>
@@ -16026,25 +16026,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.01785714285714286</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F248">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H248">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>492</v>
@@ -16076,25 +16076,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.01785714285714286</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C249">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D249">
-        <v>18</v>
+        <v>215</v>
       </c>
       <c r="E249">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="F249">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>55</v>
+        <v>168</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>493</v>
@@ -16132,13 +16132,13 @@
         <v>1</v>
       </c>
       <c r="D250">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E250">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
       <c r="F250">
-        <v>0.12</v>
+        <v>0.33</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
@@ -16176,28 +16176,28 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.01754385964912281</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C251">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D251">
-        <v>215</v>
+        <v>1</v>
       </c>
       <c r="E251">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F251">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H251">
-        <v>168</v>
+        <v>57</v>
       </c>
       <c r="J251" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K251">
         <v>0.1548311990686845</v>
@@ -16226,28 +16226,28 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.01754385964912281</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E252">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="F252">
-        <v>0.33</v>
+        <v>0.2</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J252" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K252">
         <v>0.1544117647058824</v>
@@ -16276,28 +16276,28 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.01724137931034483</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
       <c r="D253">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F253">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G253" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H253">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J253" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K253">
         <v>0.1538461538461539</v>
@@ -16326,25 +16326,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.01694915254237288</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C254">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D254">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E254">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F254">
-        <v>0.2</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>495</v>
@@ -16376,25 +16376,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.01694915254237288</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C255">
         <v>1</v>
       </c>
       <c r="D255">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E255">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F255">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>496</v>
@@ -16426,25 +16426,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.01666666666666667</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="C256">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D256">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E256">
-        <v>0.9</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F256">
-        <v>0.09999999999999998</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>497</v>
@@ -16476,25 +16476,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.01666666666666667</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C257">
         <v>1</v>
       </c>
       <c r="D257">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E257">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F257">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H257">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>498</v>
@@ -16526,25 +16526,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.01639344262295082</v>
+        <v>0.0160857908847185</v>
       </c>
       <c r="C258">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D258">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="E258">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F258">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G258" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H258">
-        <v>60</v>
+        <v>367</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>499</v>
@@ -16576,28 +16576,28 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.01612903225806452</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
       <c r="D259">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E259">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F259">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H259">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J259" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K259">
         <v>0.1495327102803738</v>
@@ -16626,25 +16626,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.0160857908847185</v>
+        <v>0.0155440414507772</v>
       </c>
       <c r="C260">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D260">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="E260">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F260">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H260">
-        <v>367</v>
+        <v>190</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>500</v>
@@ -16676,25 +16676,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.01587301587301587</v>
+        <v>0.01526717557251908</v>
       </c>
       <c r="C261">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D261">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E261">
-        <v>0.9399999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="F261">
-        <v>0.06000000000000005</v>
+        <v>0.22</v>
       </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>501</v>
@@ -16726,13 +16726,13 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.0155440414507772</v>
+        <v>0.01526717557251908</v>
       </c>
       <c r="C262">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D262">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="E262">
         <v>0.9399999999999999</v>
@@ -16744,7 +16744,7 @@
         <v>1</v>
       </c>
       <c r="H262">
-        <v>190</v>
+        <v>258</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>502</v>
@@ -16776,25 +16776,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.01526717557251908</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="C263">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D263">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E263">
-        <v>0.78</v>
+        <v>0.5</v>
       </c>
       <c r="F263">
-        <v>0.22</v>
+        <v>0.5</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>503</v>
@@ -16826,28 +16826,28 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.01526717557251908</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="C264">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D264">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="E264">
-        <v>0.9399999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="F264">
-        <v>0.06000000000000005</v>
+        <v>0.2</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>258</v>
+        <v>68</v>
       </c>
       <c r="J264" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K264">
         <v>0.1451612903225807</v>
@@ -16876,28 +16876,28 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.01492537313432836</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="C265">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D265">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E265">
-        <v>0.5</v>
+        <v>0.91</v>
       </c>
       <c r="F265">
-        <v>0.5</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>66</v>
+        <v>142</v>
       </c>
       <c r="J265" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K265">
         <v>0.1451612903225807</v>
@@ -16926,25 +16926,25 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.01449275362318841</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="C266">
         <v>1</v>
       </c>
       <c r="D266">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E266">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="F266">
-        <v>0.2</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>504</v>
@@ -16976,25 +16976,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.01388888888888889</v>
+        <v>0.01360544217687075</v>
       </c>
       <c r="C267">
         <v>2</v>
       </c>
       <c r="D267">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E267">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F267">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>505</v>
@@ -17026,25 +17026,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.0136986301369863</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="C268">
         <v>1</v>
       </c>
       <c r="D268">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E268">
-        <v>0.9</v>
+        <v>0.67</v>
       </c>
       <c r="F268">
-        <v>0.09999999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>506</v>
@@ -17076,25 +17076,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.01360544217687075</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C269">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D269">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E269">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="F269">
-        <v>0.09999999999999998</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>145</v>
+        <v>75</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>507</v>
@@ -17126,25 +17126,25 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.01351351351351351</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C270">
         <v>1</v>
       </c>
       <c r="D270">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E270">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="F270">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>508</v>
@@ -17182,16 +17182,16 @@
         <v>1</v>
       </c>
       <c r="D271">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E271">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F271">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G271" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H271">
         <v>75</v>
@@ -17226,25 +17226,25 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.0131578947368421</v>
+        <v>0.01313320825515948</v>
       </c>
       <c r="C272">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D272">
-        <v>7</v>
+        <v>124</v>
       </c>
       <c r="E272">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F272">
-        <v>0.14</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>75</v>
+        <v>526</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>510</v>
@@ -17276,25 +17276,25 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.0131578947368421</v>
+        <v>0.0130718954248366</v>
       </c>
       <c r="C273">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D273">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E273">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F273">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G273" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H273">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>511</v>
@@ -17326,25 +17326,25 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.01313320825515948</v>
+        <v>0.01294964028776978</v>
       </c>
       <c r="C274">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D274">
-        <v>124</v>
+        <v>215</v>
       </c>
       <c r="E274">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F274">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G274" t="b">
         <v>1</v>
       </c>
       <c r="H274">
-        <v>526</v>
+        <v>686</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>512</v>
@@ -17376,25 +17376,25 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.0130718954248366</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C275">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D275">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E275">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F275">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G275" t="b">
         <v>1</v>
       </c>
       <c r="H275">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>513</v>
@@ -17426,25 +17426,25 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.01294964028776978</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="C276">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D276">
-        <v>215</v>
+        <v>12</v>
       </c>
       <c r="E276">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F276">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G276" t="b">
         <v>1</v>
       </c>
       <c r="H276">
-        <v>686</v>
+        <v>77</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>514</v>
@@ -17476,25 +17476,25 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.01282051282051282</v>
+        <v>0.01226993865030675</v>
       </c>
       <c r="C277">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D277">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E277">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="F277">
-        <v>0.06999999999999995</v>
+        <v>0.2</v>
       </c>
       <c r="G277" t="b">
         <v>1</v>
       </c>
       <c r="H277">
-        <v>77</v>
+        <v>161</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>515</v>
@@ -17526,25 +17526,25 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>0.01282051282051282</v>
+        <v>0.01220008133387556</v>
       </c>
       <c r="C278">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D278">
-        <v>12</v>
+        <v>678</v>
       </c>
       <c r="E278">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="F278">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G278" t="b">
         <v>1</v>
       </c>
       <c r="H278">
-        <v>77</v>
+        <v>2429</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>516</v>
@@ -17576,25 +17576,25 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>0.01226993865030675</v>
+        <v>0.01196953210010881</v>
       </c>
       <c r="C279">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D279">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E279">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="F279">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="G279" t="b">
         <v>1</v>
       </c>
       <c r="H279">
-        <v>161</v>
+        <v>908</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>517</v>
@@ -17626,25 +17626,25 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>0.01220008133387556</v>
+        <v>0.01188707280832095</v>
       </c>
       <c r="C280">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D280">
-        <v>678</v>
+        <v>229</v>
       </c>
       <c r="E280">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F280">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G280" t="b">
         <v>1</v>
       </c>
       <c r="H280">
-        <v>2429</v>
+        <v>665</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>518</v>
@@ -17676,25 +17676,25 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>0.01196953210010881</v>
+        <v>0.01175778953556731</v>
       </c>
       <c r="C281">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D281">
-        <v>60</v>
+        <v>462</v>
       </c>
       <c r="E281">
-        <v>0.82</v>
+        <v>0.96</v>
       </c>
       <c r="F281">
-        <v>0.18</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G281" t="b">
         <v>1</v>
       </c>
       <c r="H281">
-        <v>908</v>
+        <v>1681</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>519</v>
@@ -17726,25 +17726,25 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>0.01188707280832095</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="C282">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D282">
-        <v>229</v>
+        <v>21</v>
       </c>
       <c r="E282">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F282">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G282" t="b">
         <v>1</v>
       </c>
       <c r="H282">
-        <v>665</v>
+        <v>88</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>520</v>
@@ -17776,13 +17776,13 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>0.01175778953556731</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="C283">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D283">
-        <v>462</v>
+        <v>23</v>
       </c>
       <c r="E283">
         <v>0.96</v>
@@ -17794,7 +17794,7 @@
         <v>1</v>
       </c>
       <c r="H283">
-        <v>1681</v>
+        <v>89</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>521</v>
@@ -17826,25 +17826,25 @@
         <v>289</v>
       </c>
       <c r="B284">
-        <v>0.01123595505617977</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="C284">
         <v>1</v>
       </c>
       <c r="D284">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E284">
-        <v>0.95</v>
+        <v>0.89</v>
       </c>
       <c r="F284">
-        <v>0.05000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="G284" t="b">
         <v>1</v>
       </c>
       <c r="H284">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>522</v>
@@ -17876,25 +17876,25 @@
         <v>290</v>
       </c>
       <c r="B285">
-        <v>0.01111111111111111</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="C285">
         <v>1</v>
       </c>
       <c r="D285">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E285">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F285">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G285" t="b">
         <v>1</v>
       </c>
       <c r="H285">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>523</v>
@@ -17926,25 +17926,25 @@
         <v>291</v>
       </c>
       <c r="B286">
-        <v>0.01098901098901099</v>
+        <v>0.0108991825613079</v>
       </c>
       <c r="C286">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D286">
-        <v>9</v>
+        <v>141</v>
       </c>
       <c r="E286">
-        <v>0.89</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F286">
-        <v>0.11</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G286" t="b">
         <v>1</v>
       </c>
       <c r="H286">
-        <v>90</v>
+        <v>726</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>524</v>
@@ -17976,25 +17976,25 @@
         <v>292</v>
       </c>
       <c r="B287">
-        <v>0.01098901098901099</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="C287">
         <v>1</v>
       </c>
       <c r="D287">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E287">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F287">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G287" t="b">
         <v>1</v>
       </c>
       <c r="H287">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>525</v>
@@ -18026,25 +18026,25 @@
         <v>293</v>
       </c>
       <c r="B288">
-        <v>0.0108991825613079</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="C288">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D288">
-        <v>141</v>
+        <v>9</v>
       </c>
       <c r="E288">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="F288">
-        <v>0.06000000000000005</v>
+        <v>0.11</v>
       </c>
       <c r="G288" t="b">
         <v>1</v>
       </c>
       <c r="H288">
-        <v>726</v>
+        <v>91</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>526</v>
@@ -18076,25 +18076,25 @@
         <v>294</v>
       </c>
       <c r="B289">
-        <v>0.0108695652173913</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="C289">
         <v>1</v>
       </c>
       <c r="D289">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="E289">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F289">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G289" t="b">
         <v>1</v>
       </c>
       <c r="H289">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>527</v>
@@ -18126,25 +18126,25 @@
         <v>295</v>
       </c>
       <c r="B290">
-        <v>0.0108695652173913</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="C290">
         <v>1</v>
       </c>
       <c r="D290">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E290">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="F290">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="G290" t="b">
         <v>1</v>
       </c>
       <c r="H290">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="J290" s="1" t="s">
         <v>528</v>
@@ -18176,25 +18176,25 @@
         <v>296</v>
       </c>
       <c r="B291">
-        <v>0.01041666666666667</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="C291">
         <v>1</v>
       </c>
       <c r="D291">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E291">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F291">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G291" t="b">
         <v>1</v>
       </c>
       <c r="H291">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>529</v>
@@ -18226,25 +18226,25 @@
         <v>297</v>
       </c>
       <c r="B292">
-        <v>0.01030927835051546</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="C292">
         <v>1</v>
       </c>
       <c r="D292">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E292">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="F292">
-        <v>0.2</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G292" t="b">
         <v>1</v>
       </c>
       <c r="H292">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J292" s="1" t="s">
         <v>530</v>
@@ -18276,25 +18276,25 @@
         <v>298</v>
       </c>
       <c r="B293">
-        <v>0.01020408163265306</v>
+        <v>0.009980039920159681</v>
       </c>
       <c r="C293">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D293">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="E293">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="F293">
-        <v>0.06000000000000005</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G293" t="b">
         <v>1</v>
       </c>
       <c r="H293">
-        <v>97</v>
+        <v>496</v>
       </c>
       <c r="J293" s="1" t="s">
         <v>531</v>
@@ -18326,25 +18326,25 @@
         <v>299</v>
       </c>
       <c r="B294">
-        <v>0.01020408163265306</v>
+        <v>0.00966183574879227</v>
       </c>
       <c r="C294">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D294">
         <v>22</v>
       </c>
       <c r="E294">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F294">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G294" t="b">
         <v>1</v>
       </c>
       <c r="H294">
-        <v>97</v>
+        <v>205</v>
       </c>
       <c r="J294" s="1" t="s">
         <v>532</v>
@@ -18376,25 +18376,25 @@
         <v>300</v>
       </c>
       <c r="B295">
-        <v>0.009980039920159681</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="C295">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D295">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="E295">
-        <v>0.9</v>
+        <v>0.67</v>
       </c>
       <c r="F295">
-        <v>0.09999999999999998</v>
+        <v>0.33</v>
       </c>
       <c r="G295" t="b">
         <v>1</v>
       </c>
       <c r="H295">
-        <v>496</v>
+        <v>103</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>533</v>
@@ -18426,25 +18426,25 @@
         <v>301</v>
       </c>
       <c r="B296">
-        <v>0.00966183574879227</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="C296">
         <v>2</v>
       </c>
       <c r="D296">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="E296">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="F296">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G296" t="b">
         <v>1</v>
       </c>
       <c r="H296">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="J296" s="1" t="s">
         <v>534</v>
@@ -18476,25 +18476,25 @@
         <v>302</v>
       </c>
       <c r="B297">
-        <v>0.009615384615384616</v>
+        <v>0.008869179600886918</v>
       </c>
       <c r="C297">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D297">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="E297">
-        <v>0.67</v>
+        <v>0.97</v>
       </c>
       <c r="F297">
-        <v>0.33</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G297" t="b">
         <v>1</v>
       </c>
       <c r="H297">
-        <v>103</v>
+        <v>447</v>
       </c>
       <c r="J297" s="1" t="s">
         <v>535</v>
@@ -18526,25 +18526,25 @@
         <v>303</v>
       </c>
       <c r="B298">
-        <v>0.009345794392523364</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="C298">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D298">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E298">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F298">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G298" t="b">
         <v>1</v>
       </c>
       <c r="H298">
-        <v>212</v>
+        <v>113</v>
       </c>
       <c r="J298" s="1" t="s">
         <v>536</v>
@@ -18576,25 +18576,25 @@
         <v>304</v>
       </c>
       <c r="B299">
-        <v>0.008869179600886918</v>
+        <v>0.008620689655172414</v>
       </c>
       <c r="C299">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D299">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="E299">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F299">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G299" t="b">
         <v>1</v>
       </c>
       <c r="H299">
-        <v>447</v>
+        <v>115</v>
       </c>
       <c r="J299" s="1" t="s">
         <v>537</v>
@@ -18626,25 +18626,25 @@
         <v>305</v>
       </c>
       <c r="B300">
-        <v>0.008771929824561403</v>
+        <v>0.008474576271186441</v>
       </c>
       <c r="C300">
         <v>1</v>
       </c>
       <c r="D300">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E300">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F300">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G300" t="b">
         <v>1</v>
       </c>
       <c r="H300">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="J300" s="1" t="s">
         <v>538</v>
@@ -18676,25 +18676,25 @@
         <v>306</v>
       </c>
       <c r="B301">
-        <v>0.008620689655172414</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="C301">
         <v>1</v>
       </c>
       <c r="D301">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E301">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F301">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G301" t="b">
         <v>1</v>
       </c>
       <c r="H301">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="J301" s="1" t="s">
         <v>539</v>
@@ -18726,25 +18726,25 @@
         <v>307</v>
       </c>
       <c r="B302">
-        <v>0.008474576271186441</v>
+        <v>0.008</v>
       </c>
       <c r="C302">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D302">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E302">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F302">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G302" t="b">
         <v>1</v>
       </c>
       <c r="H302">
-        <v>117</v>
+        <v>248</v>
       </c>
       <c r="J302" s="1" t="s">
         <v>540</v>
@@ -18776,25 +18776,25 @@
         <v>308</v>
       </c>
       <c r="B303">
-        <v>0.008064516129032258</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="C303">
         <v>1</v>
       </c>
       <c r="D303">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E303">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F303">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G303" t="b">
         <v>1</v>
       </c>
       <c r="H303">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J303" s="1" t="s">
         <v>541</v>
@@ -18826,28 +18826,28 @@
         <v>309</v>
       </c>
       <c r="B304">
-        <v>0.008</v>
+        <v>0.006756756756756757</v>
       </c>
       <c r="C304">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D304">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E304">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F304">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G304" t="b">
         <v>1</v>
       </c>
       <c r="H304">
-        <v>248</v>
+        <v>147</v>
       </c>
       <c r="J304" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K304">
         <v>0.1422291993720565</v>
@@ -18876,28 +18876,28 @@
         <v>310</v>
       </c>
       <c r="B305">
-        <v>0.007936507936507936</v>
+        <v>0.005917159763313609</v>
       </c>
       <c r="C305">
         <v>1</v>
       </c>
       <c r="D305">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="E305">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="F305">
-        <v>0.07999999999999996</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G305" t="b">
         <v>1</v>
       </c>
       <c r="H305">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="J305" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K305">
         <v>0.1403508771929824</v>
@@ -18926,28 +18926,28 @@
         <v>311</v>
       </c>
       <c r="B306">
-        <v>0.006756756756756757</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="C306">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D306">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E306">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="F306">
-        <v>0.04000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G306" t="b">
         <v>1</v>
       </c>
       <c r="H306">
-        <v>147</v>
+        <v>338</v>
       </c>
       <c r="J306" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K306">
         <v>0.14</v>
@@ -18976,25 +18976,25 @@
         <v>312</v>
       </c>
       <c r="B307">
-        <v>0.005917159763313609</v>
+        <v>0.005822416302765648</v>
       </c>
       <c r="C307">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D307">
-        <v>47</v>
+        <v>469</v>
       </c>
       <c r="E307">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F307">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G307" t="b">
         <v>1</v>
       </c>
       <c r="H307">
-        <v>168</v>
+        <v>2732</v>
       </c>
       <c r="J307" s="1" t="s">
         <v>542</v>
@@ -19026,25 +19026,25 @@
         <v>313</v>
       </c>
       <c r="B308">
-        <v>0.005882352941176471</v>
+        <v>0.005376344086021506</v>
       </c>
       <c r="C308">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D308">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E308">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="F308">
-        <v>0.08999999999999997</v>
+        <v>0.17</v>
       </c>
       <c r="G308" t="b">
         <v>1</v>
       </c>
       <c r="H308">
-        <v>338</v>
+        <v>185</v>
       </c>
       <c r="J308" s="1" t="s">
         <v>543</v>
@@ -19076,25 +19076,25 @@
         <v>314</v>
       </c>
       <c r="B309">
-        <v>0.005822416302765648</v>
+        <v>0.005025125628140704</v>
       </c>
       <c r="C309">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D309">
-        <v>469</v>
+        <v>27</v>
       </c>
       <c r="E309">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F309">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G309" t="b">
         <v>1</v>
       </c>
       <c r="H309">
-        <v>2732</v>
+        <v>198</v>
       </c>
       <c r="J309" s="1" t="s">
         <v>544</v>
@@ -19126,25 +19126,25 @@
         <v>315</v>
       </c>
       <c r="B310">
-        <v>0.005376344086021506</v>
+        <v>0.004816955684007707</v>
       </c>
       <c r="C310">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D310">
-        <v>6</v>
+        <v>128</v>
       </c>
       <c r="E310">
-        <v>0.83</v>
+        <v>0.96</v>
       </c>
       <c r="F310">
-        <v>0.17</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G310" t="b">
         <v>1</v>
       </c>
       <c r="H310">
-        <v>185</v>
+        <v>1033</v>
       </c>
       <c r="J310" s="1" t="s">
         <v>545</v>
@@ -19176,25 +19176,25 @@
         <v>316</v>
       </c>
       <c r="B311">
-        <v>0.005025125628140704</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="C311">
         <v>1</v>
       </c>
       <c r="D311">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="E311">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="F311">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G311" t="b">
         <v>1</v>
       </c>
       <c r="H311">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="J311" s="1" t="s">
         <v>546</v>
@@ -19226,25 +19226,25 @@
         <v>317</v>
       </c>
       <c r="B312">
-        <v>0.004816955684007707</v>
+        <v>0.00425531914893617</v>
       </c>
       <c r="C312">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D312">
-        <v>128</v>
+        <v>2</v>
       </c>
       <c r="E312">
-        <v>0.96</v>
+        <v>0.5</v>
       </c>
       <c r="F312">
-        <v>0.04000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="G312" t="b">
         <v>1</v>
       </c>
       <c r="H312">
-        <v>1033</v>
+        <v>234</v>
       </c>
       <c r="J312" s="1" t="s">
         <v>547</v>
@@ -19276,13 +19276,13 @@
         <v>318</v>
       </c>
       <c r="B313">
-        <v>0.004273504273504274</v>
+        <v>0.002801120448179272</v>
       </c>
       <c r="C313">
         <v>1</v>
       </c>
       <c r="D313">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="E313">
         <v>0.99</v>
@@ -19294,7 +19294,7 @@
         <v>1</v>
       </c>
       <c r="H313">
-        <v>233</v>
+        <v>356</v>
       </c>
       <c r="J313" s="1" t="s">
         <v>548</v>
@@ -19322,30 +19322,6 @@
       </c>
     </row>
     <row r="314" spans="1:17">
-      <c r="A314" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B314">
-        <v>0.00425531914893617</v>
-      </c>
-      <c r="C314">
-        <v>1</v>
-      </c>
-      <c r="D314">
-        <v>2</v>
-      </c>
-      <c r="E314">
-        <v>0.5</v>
-      </c>
-      <c r="F314">
-        <v>0.5</v>
-      </c>
-      <c r="G314" t="b">
-        <v>1</v>
-      </c>
-      <c r="H314">
-        <v>234</v>
-      </c>
       <c r="J314" s="1" t="s">
         <v>549</v>
       </c>
@@ -19372,30 +19348,6 @@
       </c>
     </row>
     <row r="315" spans="1:17">
-      <c r="A315" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B315">
-        <v>0.002801120448179272</v>
-      </c>
-      <c r="C315">
-        <v>1</v>
-      </c>
-      <c r="D315">
-        <v>130</v>
-      </c>
-      <c r="E315">
-        <v>0.99</v>
-      </c>
-      <c r="F315">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="G315" t="b">
-        <v>1</v>
-      </c>
-      <c r="H315">
-        <v>356</v>
-      </c>
       <c r="J315" s="1" t="s">
         <v>550</v>
       </c>
@@ -19449,7 +19401,7 @@
     </row>
     <row r="317" spans="1:17">
       <c r="J317" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K317">
         <v>0.1346153846153846</v>
@@ -19475,7 +19427,7 @@
     </row>
     <row r="318" spans="1:17">
       <c r="J318" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K318">
         <v>0.1339285714285714</v>
@@ -19709,7 +19661,7 @@
     </row>
     <row r="327" spans="10:17">
       <c r="J327" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K327">
         <v>0.1323529411764706</v>
@@ -19761,7 +19713,7 @@
     </row>
     <row r="329" spans="10:17">
       <c r="J329" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K329">
         <v>0.131578947368421</v>
@@ -20021,7 +19973,7 @@
     </row>
     <row r="339" spans="10:17">
       <c r="J339" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K339">
         <v>0.1262135922330097</v>
@@ -20047,7 +19999,7 @@
     </row>
     <row r="340" spans="10:17">
       <c r="J340" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K340">
         <v>0.125</v>
@@ -21191,7 +21143,7 @@
     </row>
     <row r="384" spans="10:17">
       <c r="J384" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K384">
         <v>0.1234567901234568</v>
@@ -21295,7 +21247,7 @@
     </row>
     <row r="388" spans="10:17">
       <c r="J388" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K388">
         <v>0.12</v>
@@ -21503,7 +21455,7 @@
     </row>
     <row r="396" spans="10:17">
       <c r="J396" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K396">
         <v>0.1176470588235294</v>
@@ -21685,7 +21637,7 @@
     </row>
     <row r="403" spans="10:17">
       <c r="J403" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K403">
         <v>0.1160714285714286</v>
@@ -21711,7 +21663,7 @@
     </row>
     <row r="404" spans="10:17">
       <c r="J404" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K404">
         <v>0.1158536585365854</v>
@@ -21971,7 +21923,7 @@
     </row>
     <row r="414" spans="10:17">
       <c r="J414" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K414">
         <v>0.1111111111111111</v>
@@ -22127,7 +22079,7 @@
     </row>
     <row r="420" spans="10:17">
       <c r="J420" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K420">
         <v>0.1111111111111111</v>
@@ -22309,7 +22261,7 @@
     </row>
     <row r="427" spans="10:17">
       <c r="J427" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K427">
         <v>0.1111111111111111</v>
@@ -22517,7 +22469,7 @@
     </row>
     <row r="435" spans="10:17">
       <c r="J435" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K435">
         <v>0.1111111111111111</v>
@@ -22803,7 +22755,7 @@
     </row>
     <row r="446" spans="10:17">
       <c r="J446" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K446">
         <v>0.1102362204724409</v>
@@ -22855,7 +22807,7 @@
     </row>
     <row r="448" spans="10:17">
       <c r="J448" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K448">
         <v>0.108695652173913</v>
@@ -22907,7 +22859,7 @@
     </row>
     <row r="450" spans="10:17">
       <c r="J450" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K450">
         <v>0.1076923076923077</v>
@@ -22985,7 +22937,7 @@
     </row>
     <row r="453" spans="10:17">
       <c r="J453" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K453">
         <v>0.106401384083045</v>
@@ -23349,7 +23301,7 @@
     </row>
     <row r="467" spans="10:17">
       <c r="J467" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K467">
         <v>0.1021897810218978</v>
@@ -23583,7 +23535,7 @@
     </row>
     <row r="476" spans="10:17">
       <c r="J476" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K476">
         <v>0.1</v>
@@ -24571,7 +24523,7 @@
     </row>
     <row r="514" spans="10:17">
       <c r="J514" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K514">
         <v>0.09230769230769231</v>
@@ -24675,7 +24627,7 @@
     </row>
     <row r="518" spans="10:17">
       <c r="J518" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K518">
         <v>0.09090909090909091</v>
@@ -24831,7 +24783,7 @@
     </row>
     <row r="524" spans="10:17">
       <c r="J524" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K524">
         <v>0.09090909090909091</v>
@@ -25663,7 +25615,7 @@
     </row>
     <row r="556" spans="10:17">
       <c r="J556" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K556">
         <v>0.08888888888888889</v>
@@ -25923,7 +25875,7 @@
     </row>
     <row r="566" spans="10:17">
       <c r="J566" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K566">
         <v>0.08602150537634409</v>
@@ -26703,7 +26655,7 @@
     </row>
     <row r="596" spans="10:17">
       <c r="J596" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K596">
         <v>0.08163265306122448</v>
@@ -26729,7 +26681,7 @@
     </row>
     <row r="597" spans="10:17">
       <c r="J597" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K597">
         <v>0.08148148148148149</v>
@@ -26807,7 +26759,7 @@
     </row>
     <row r="600" spans="10:17">
       <c r="J600" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K600">
         <v>0.08088235294117647</v>
@@ -26833,7 +26785,7 @@
     </row>
     <row r="601" spans="10:17">
       <c r="J601" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K601">
         <v>0.08080808080808081</v>
@@ -26989,7 +26941,7 @@
     </row>
     <row r="607" spans="10:17">
       <c r="J607" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K607">
         <v>0.07894736842105263</v>
@@ -27743,7 +27695,7 @@
     </row>
     <row r="636" spans="10:17">
       <c r="J636" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K636">
         <v>0.07407407407407407</v>
@@ -27769,7 +27721,7 @@
     </row>
     <row r="637" spans="10:17">
       <c r="J637" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K637">
         <v>0.07407407407407407</v>
@@ -27873,7 +27825,7 @@
     </row>
     <row r="641" spans="10:17">
       <c r="J641" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K641">
         <v>0.07317073170731707</v>
@@ -27899,7 +27851,7 @@
     </row>
     <row r="642" spans="10:17">
       <c r="J642" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K642">
         <v>0.07272727272727272</v>
@@ -27977,7 +27929,7 @@
     </row>
     <row r="645" spans="10:17">
       <c r="J645" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K645">
         <v>0.07142857142857142</v>
@@ -28263,7 +28215,7 @@
     </row>
     <row r="656" spans="10:17">
       <c r="J656" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K656">
         <v>0.07142857142857142</v>
@@ -28913,7 +28865,7 @@
     </row>
     <row r="681" spans="10:17">
       <c r="J681" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K681">
         <v>0.06896551724137931</v>
@@ -28965,7 +28917,7 @@
     </row>
     <row r="683" spans="10:17">
       <c r="J683" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K683">
         <v>0.06818181818181818</v>
@@ -29095,7 +29047,7 @@
     </row>
     <row r="688" spans="10:17">
       <c r="J688" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K688">
         <v>0.06666666666666667</v>
@@ -29485,7 +29437,7 @@
     </row>
     <row r="703" spans="10:17">
       <c r="J703" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K703">
         <v>0.06666666666666667</v>
@@ -29537,7 +29489,7 @@
     </row>
     <row r="705" spans="10:17">
       <c r="J705" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K705">
         <v>0.0660377358490566</v>
@@ -29641,7 +29593,7 @@
     </row>
     <row r="709" spans="10:17">
       <c r="J709" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K709">
         <v>0.06451612903225806</v>
@@ -29771,7 +29723,7 @@
     </row>
     <row r="714" spans="10:17">
       <c r="J714" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K714">
         <v>0.06382978723404255</v>
@@ -29927,7 +29879,7 @@
     </row>
     <row r="720" spans="10:17">
       <c r="J720" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K720">
         <v>0.0625</v>
@@ -30395,7 +30347,7 @@
     </row>
     <row r="738" spans="10:17">
       <c r="J738" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K738">
         <v>0.05882352941176471</v>
@@ -30551,7 +30503,7 @@
     </row>
     <row r="744" spans="10:17">
       <c r="J744" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K744">
         <v>0.05882352941176471</v>
@@ -30837,7 +30789,7 @@
     </row>
     <row r="755" spans="10:17">
       <c r="J755" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K755">
         <v>0.05586592178770949</v>
@@ -31045,7 +30997,7 @@
     </row>
     <row r="763" spans="10:17">
       <c r="J763" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K763">
         <v>0.05555555555555555</v>
@@ -31461,7 +31413,7 @@
     </row>
     <row r="779" spans="10:17">
       <c r="J779" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K779">
         <v>0.05263157894736842</v>
@@ -31513,7 +31465,7 @@
     </row>
     <row r="781" spans="10:17">
       <c r="J781" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K781">
         <v>0.05263157894736842</v>
@@ -31929,7 +31881,7 @@
     </row>
     <row r="797" spans="10:17">
       <c r="J797" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K797">
         <v>0.05147058823529412</v>
@@ -31981,7 +31933,7 @@
     </row>
     <row r="799" spans="10:17">
       <c r="J799" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K799">
         <v>0.05128205128205128</v>
@@ -32007,7 +31959,7 @@
     </row>
     <row r="800" spans="10:17">
       <c r="J800" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K800">
         <v>0.05120167189132706</v>
@@ -32215,7 +32167,7 @@
     </row>
     <row r="808" spans="10:17">
       <c r="J808" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K808">
         <v>0.05</v>
@@ -32761,7 +32713,7 @@
     </row>
     <row r="829" spans="10:17">
       <c r="J829" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K829">
         <v>0.04733727810650887</v>
@@ -32891,7 +32843,7 @@
     </row>
     <row r="834" spans="10:17">
       <c r="J834" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K834">
         <v>0.04545454545454546</v>
@@ -33203,7 +33155,7 @@
     </row>
     <row r="846" spans="10:17">
       <c r="J846" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K846">
         <v>0.04347826086956522</v>
@@ -33359,7 +33311,7 @@
     </row>
     <row r="852" spans="10:17">
       <c r="J852" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K852">
         <v>0.04347826086956522</v>
@@ -33385,7 +33337,7 @@
     </row>
     <row r="853" spans="10:17">
       <c r="J853" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K853">
         <v>0.04347826086956522</v>
@@ -33567,7 +33519,7 @@
     </row>
     <row r="860" spans="10:17">
       <c r="J860" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K860">
         <v>0.0425531914893617</v>
@@ -33905,7 +33857,7 @@
     </row>
     <row r="873" spans="10:17">
       <c r="J873" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K873">
         <v>0.04</v>
@@ -33957,7 +33909,7 @@
     </row>
     <row r="875" spans="10:17">
       <c r="J875" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K875">
         <v>0.04</v>
@@ -34399,7 +34351,7 @@
     </row>
     <row r="892" spans="10:17">
       <c r="J892" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K892">
         <v>0.03571428571428571</v>
@@ -34425,7 +34377,7 @@
     </row>
     <row r="893" spans="10:17">
       <c r="J893" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K893">
         <v>0.03571428571428571</v>
@@ -34555,7 +34507,7 @@
     </row>
     <row r="898" spans="10:17">
       <c r="J898" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K898">
         <v>0.03448275862068965</v>
@@ -34997,7 +34949,7 @@
     </row>
     <row r="915" spans="10:17">
       <c r="J915" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K915">
         <v>0.02857142857142857</v>
@@ -35127,7 +35079,7 @@
     </row>
     <row r="920" spans="10:17">
       <c r="J920" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K920">
         <v>0.02702702702702703</v>
@@ -35179,7 +35131,7 @@
     </row>
     <row r="922" spans="10:17">
       <c r="J922" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K922">
         <v>0.02666666666666667</v>
@@ -35205,7 +35157,7 @@
     </row>
     <row r="923" spans="10:17">
       <c r="J923" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K923">
         <v>0.02631578947368421</v>
@@ -35387,7 +35339,7 @@
     </row>
     <row r="930" spans="10:17">
       <c r="J930" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K930">
         <v>0.02439024390243903</v>
@@ -35725,7 +35677,7 @@
     </row>
     <row r="943" spans="10:17">
       <c r="J943" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K943">
         <v>0.01904761904761905</v>
@@ -35855,7 +35807,7 @@
     </row>
     <row r="948" spans="10:17">
       <c r="J948" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K948">
         <v>0.01621621621621622</v>
@@ -35933,7 +35885,7 @@
     </row>
     <row r="951" spans="10:17">
       <c r="J951" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K951">
         <v>0.01492537313432836</v>
@@ -35985,7 +35937,7 @@
     </row>
     <row r="953" spans="10:17">
       <c r="J953" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K953">
         <v>0.00425531914893617</v>
@@ -36011,7 +35963,7 @@
     </row>
     <row r="954" spans="10:17">
       <c r="J954" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K954">
         <v>0.00411522633744856</v>
